--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE41D7C-CE08-4FBB-BC95-E7BD54FBD746}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD3F52-2B57-442A-805C-5F2621AC92B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,26 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝buff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大类：
-1：攻击buff
-2：防御buff
-3：持续buff
-4：异常buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,14 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>形成一个吸收伤害的盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小类 （BuffType2Cfg#getId）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,7 +82,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续（次）</t>
+    <t>effectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否一次执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续（毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果id：
+1：持续回蓝
+2：持续扣血
+3：累计吸收伤害护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计吸收伤害的护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,41 +437,40 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -483,22 +481,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,16 +504,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -524,7 +522,7 @@
         <v>1000</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,16 +530,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>5</v>
@@ -550,7 +548,7 @@
         <v>1000</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,19 +556,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>100</v>
+      </c>
+      <c r="H5">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBD3F52-2B57-442A-805C-5F2621AC92B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05658FF-5023-4CDA-A6BC-CA08B843FA2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1000</v>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05658FF-5023-4CDA-A6BC-CA08B843FA2B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29287140-BCA6-4C01-9327-090787E74FAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒扣5hp，持续20秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -106,6 +102,20 @@
   </si>
   <si>
     <t>Once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用目标：
+1：自己
+2：敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加每秒扣5hp，持续20秒的毒性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,32 +458,37 @@
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,25 +496,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -510,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -524,19 +542,22 @@
       <c r="H3">
         <v>20000</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -550,8 +571,11 @@
       <c r="H4">
         <v>20000</v>
       </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -562,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -572,6 +596,9 @@
       </c>
       <c r="H5">
         <v>60000</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29287140-BCA6-4C01-9327-090787E74FAF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35B82C-43A2-4686-9386-77A08F5BA097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,35 +87,44 @@
   </si>
   <si>
     <t>持续（毫秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计吸收伤害的护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用目标：
+1：自己
+2：敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人施加每秒扣5hp，持续20秒的毒性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕眩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>效果id：
 1：持续回蓝
 2：持续扣血
-3：累计吸收伤害护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计吸收伤害的护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Once</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用目标：
-1：自己
-2：敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人施加每秒扣5hp，持续20秒的毒性</t>
+3：累计吸收伤害护盾
+4：不能攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -467,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -485,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -502,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -514,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -557,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -586,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -599,6 +608,29 @@
       </c>
       <c r="I5">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE35B82C-43A2-4686-9386-77A08F5BA097}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2ED0E-EAFE-4455-B5E9-60EE9832259F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累计吸收伤害的护盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Once</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,8 +119,12 @@
     <t>效果id：
 1：持续回蓝
 2：持续扣血
-3：累计吸收伤害护盾
+3：一次性护盾
 4：不能攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能抵挡一次伤害的护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
@@ -494,7 +494,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -523,7 +523,7 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H3">
         <v>20000</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -575,10 +575,10 @@
         <v>5</v>
       </c>
       <c r="G4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="H4">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -595,7 +595,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -615,13 +615,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F2ED0E-EAFE-4455-B5E9-60EE9832259F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1382CC2-5359-4CEA-BA3C-15D0B0DB2C04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,6 +179,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,7 +266,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -456,18 +524,18 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
+++ b/server/docs/BuffCfgExcel_com.wan37.config.entity.BuffCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1382CC2-5359-4CEA-BA3C-15D0B0DB2C04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE2535A-8F11-4979-B5B9-51DCD75EDCAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>只能抵挡一次伤害的护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +270,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -521,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -701,6 +705,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>3000</v>
+      </c>
+      <c r="H7">
+        <v>30000</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
